--- a/Prueba_de_escritorio_Conversor.xlsx
+++ b/Prueba_de_escritorio_Conversor.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="letranum" sheetId="1" r:id="rId1"/>
+    <sheet name="LETRA" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -240,7 +241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>numero</t>
   </si>
@@ -285,6 +286,36 @@
   </si>
   <si>
     <t>MIL DOSCIENTOS TREINTA Y CUATROPESOS CON</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Letra1</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>digito</t>
+  </si>
+  <si>
+    <t>Unidades</t>
+  </si>
+  <si>
+    <t>Decenas</t>
+  </si>
+  <si>
+    <t>Centenas</t>
+  </si>
+  <si>
+    <t>Millares</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
 </sst>
 </file>
@@ -680,9 +711,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -975,4 +1006,54 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Prueba_de_escritorio_Conversor.xlsx
+++ b/Prueba_de_escritorio_Conversor.xlsx
@@ -241,7 +241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>numero</t>
   </si>
@@ -316,13 +316,31 @@
   </si>
   <si>
     <t>b</t>
+  </si>
+  <si>
+    <t>Integer.valueOf(a)==0</t>
+  </si>
+  <si>
+    <t>d&gt;31</t>
+  </si>
+  <si>
+    <t>b[i].charAt(2) != '0'</t>
+  </si>
+  <si>
+    <t>d != 0</t>
+  </si>
+  <si>
+    <t>i!=5</t>
+  </si>
+  <si>
+    <t>((i == 3) | (i == 1)) &amp; (!b[i].toString().equals("001"))</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,6 +360,14 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -388,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -403,6 +429,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -711,9 +749,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1010,50 +1048,78 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="12" max="12" width="19" customWidth="1"/>
+    <col min="14" max="14" width="16.54296875" customWidth="1"/>
+    <col min="17" max="17" width="43.08984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="8" t="s">
         <v>24</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Prueba_de_escritorio_Conversor.xlsx
+++ b/Prueba_de_escritorio_Conversor.xlsx
@@ -233,6 +233,184 @@
           </rPr>
           <t xml:space="preserve">
 Arroja un Exception</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Autor</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+a: String</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+paso: Boolean</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Letra1: String</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+i: int</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+d: int</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+digito: int</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Unidades: String[]</t>
         </r>
       </text>
     </comment>
@@ -1047,12 +1225,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N8" sqref="N8"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1121,5 +1299,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Prueba_de_escritorio_Conversor.xlsx
+++ b/Prueba_de_escritorio_Conversor.xlsx
@@ -411,6 +411,54 @@
           </rPr>
           <t xml:space="preserve">
 Unidades: String[]</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Decenas: Stri ng[]</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Centenas</t>
         </r>
       </text>
     </comment>
@@ -1229,8 +1277,8 @@
   <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Prueba_de_escritorio_Conversor.xlsx
+++ b/Prueba_de_escritorio_Conversor.xlsx
@@ -467,7 +467,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>numero</t>
   </si>
@@ -1274,11 +1274,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1344,6 +1344,430 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <v>1234</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Prueba_de_escritorio_Conversor.xlsx
+++ b/Prueba_de_escritorio_Conversor.xlsx
@@ -467,7 +467,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>numero</t>
   </si>
@@ -560,6 +560,9 @@
   </si>
   <si>
     <t>((i == 3) | (i == 1)) &amp; (!b[i].toString().equals("001"))</t>
+  </si>
+  <si>
+    <t>""</t>
   </si>
 </sst>
 </file>
@@ -1276,9 +1279,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1406,7 +1409,9 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
+      <c r="R4" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>

--- a/Prueba_de_escritorio_Conversor.xlsx
+++ b/Prueba_de_escritorio_Conversor.xlsx
@@ -631,7 +631,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -639,11 +639,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -670,6 +679,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1279,9 +1294,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R6" sqref="R6"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1414,44 +1429,44 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>

--- a/Prueba_de_escritorio_Conversor.xlsx
+++ b/Prueba_de_escritorio_Conversor.xlsx
@@ -467,7 +467,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>numero</t>
   </si>
@@ -563,6 +563,20 @@
   </si>
   <si>
     <t>""</t>
+  </si>
+  <si>
+    <t>Esta nueva prueba de escritorio será sin la variable paso y sin el if principal</t>
+  </si>
+  <si>
+    <t>{"CERO","UN","DOS","TRES","CUATRO","CINCO", "SEIS",
+   "SIETE", "OCHO", "NUEVE", "DIEZ", "ONCE", "DOCE", "TRECE", "CATORCE", "QUINCE",
+   "DIECISEIS", "DIECISIETE", "DIECIOCHO", "DIECINUEVE", "VEINTE", "VEINTIUN",
+   "VEINTIDOS", "VEINTITRES", "VEINTICUATRO", "VEINTICINCO", "VEINTISEIS",
+   "VEINTISIETE", "VEINTIOCHO", "VEINTINUEVE" }</t>
+  </si>
+  <si>
+    <t>{"","DIEZ", "VEINTE", "TREINTA", "CUARENTA",
+   "CINCUENTA", "SESENTA", "SETENTA", "OCHENTA", "NOVENTA"}</t>
   </si>
 </sst>
 </file>
@@ -599,7 +613,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -630,6 +644,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -652,7 +672,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -681,11 +701,21 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1292,15 +1322,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="7" max="7" width="24.08984375" customWidth="1"/>
+    <col min="8" max="8" width="19.54296875" customWidth="1"/>
     <col min="12" max="12" width="19" customWidth="1"/>
     <col min="14" max="14" width="16.54296875" customWidth="1"/>
     <col min="17" max="17" width="43.08984375" customWidth="1"/>
@@ -1429,49 +1461,55 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
+      <c r="A5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
+      <c r="A6" s="10">
+        <v>1234</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -1490,9 +1528,11 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -1510,10 +1550,12 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -1530,11 +1572,13 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -1548,14 +1592,16 @@
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="310.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="G11" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -1568,15 +1614,17 @@
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="82" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="H12" s="15" t="s">
+        <v>34</v>
+      </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -1590,7 +1638,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -1610,7 +1658,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -1630,7 +1678,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -1650,7 +1698,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -1670,7 +1718,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -1690,7 +1738,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -1710,7 +1758,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -1730,7 +1778,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -1750,7 +1798,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -1770,7 +1818,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -1788,7 +1836,40 @@
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
     </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B23" s="14"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B24" s="14"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B25" s="14"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B26" s="14"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B27" s="14"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B28" s="14"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B29" s="14"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B30" s="14"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B31" s="14"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B32" s="14"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A5:R5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/Prueba_de_escritorio_Conversor.xlsx
+++ b/Prueba_de_escritorio_Conversor.xlsx
@@ -467,7 +467,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>numero</t>
   </si>
@@ -577,6 +577,14 @@
   <si>
     <t>{"","DIEZ", "VEINTE", "TREINTA", "CUARENTA",
    "CINCUENTA", "SESENTA", "SETENTA", "OCHENTA", "NOVENTA"}</t>
+  </si>
+  <si>
+    <t>{"","CIENTO", "DOCIENTOS", "TRECIENTOS",
+   "CUATROCIENTOS", "QUINIENTOS", "SEICIENTOS", "SETECIENTOS", "OCHOCIENTOS",
+   "NOVECIENTOS" }</t>
+  </si>
+  <si>
+    <t>{"BILLON", "MIL MILLONES", "MILLON", "MIL"," " }</t>
   </si>
 </sst>
 </file>
@@ -1325,14 +1333,16 @@
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="7" max="7" width="24.08984375" customWidth="1"/>
     <col min="8" max="8" width="19.54296875" customWidth="1"/>
+    <col min="9" max="9" width="18.26953125" customWidth="1"/>
+    <col min="10" max="10" width="23.08984375" customWidth="1"/>
     <col min="12" max="12" width="19" customWidth="1"/>
     <col min="14" max="14" width="16.54296875" customWidth="1"/>
     <col min="17" max="17" width="43.08984375" customWidth="1"/>
@@ -1636,7 +1646,7 @@
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="136.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="13"/>
       <c r="C13" s="5"/>
@@ -1645,7 +1655,9 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="I13" s="15" t="s">
+        <v>35</v>
+      </c>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -1656,7 +1668,7 @@
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="13"/>
       <c r="C14" s="5"/>
@@ -1666,7 +1678,9 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+      <c r="J14" s="15" t="s">
+        <v>36</v>
+      </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>

--- a/Prueba_de_escritorio_Conversor.xlsx
+++ b/Prueba_de_escritorio_Conversor.xlsx
@@ -467,7 +467,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>numero</t>
   </si>
@@ -585,6 +585,9 @@
   </si>
   <si>
     <t>{"BILLON", "MIL MILLONES", "MILLON", "MIL"," " }</t>
+  </si>
+  <si>
+    <t>{"","","","",""}</t>
   </si>
 </sst>
 </file>
@@ -1333,8 +1336,8 @@
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1602,7 +1605,7 @@
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
     </row>
-    <row r="11" spans="1:18" ht="310.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="194" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="13"/>
       <c r="C11" s="5"/>
@@ -1701,7 +1704,9 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
+      <c r="K15" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
@@ -1722,7 +1727,9 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
+      <c r="L16" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>

--- a/Prueba_de_escritorio_Conversor.xlsx
+++ b/Prueba_de_escritorio_Conversor.xlsx
@@ -467,7 +467,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>numero</t>
   </si>
@@ -588,6 +588,9 @@
   </si>
   <si>
     <t>{"","","","",""}</t>
+  </si>
+  <si>
+    <t>i&lt;5</t>
   </si>
 </sst>
 </file>
@@ -1333,11 +1336,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1349,9 +1352,10 @@
     <col min="12" max="12" width="19" customWidth="1"/>
     <col min="14" max="14" width="16.54296875" customWidth="1"/>
     <col min="17" max="17" width="43.08984375" customWidth="1"/>
+    <col min="18" max="18" width="11.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -1403,11 +1407,14 @@
       <c r="Q1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1234</v>
       </c>
@@ -1428,8 +1435,9 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S2" s="5"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
         <v>13</v>
@@ -1450,8 +1458,9 @@
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S3" s="5"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1469,11 +1478,12 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
-      <c r="R4" s="5" t="s">
+      <c r="R4" s="5"/>
+      <c r="S4" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>32</v>
       </c>
@@ -1494,8 +1504,9 @@
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S5" s="11"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>1234</v>
       </c>
@@ -1516,8 +1527,9 @@
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S6" s="10"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
       <c r="B7" s="13"/>
       <c r="C7" s="5" t="s">
@@ -1538,8 +1550,9 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S7" s="5"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="13"/>
       <c r="C8" s="5"/>
@@ -1560,8 +1573,9 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S8" s="5"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="13"/>
       <c r="C9" s="5"/>
@@ -1582,8 +1596,9 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S9" s="5"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="13"/>
       <c r="C10" s="5"/>
@@ -1604,8 +1619,9 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
-    </row>
-    <row r="11" spans="1:18" ht="194" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S10" s="5"/>
+    </row>
+    <row r="11" spans="1:19" ht="194" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="13"/>
       <c r="C11" s="5"/>
@@ -1626,8 +1642,9 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
-    </row>
-    <row r="12" spans="1:18" ht="82" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S11" s="5"/>
+    </row>
+    <row r="12" spans="1:19" ht="82" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="13"/>
       <c r="C12" s="5"/>
@@ -1648,8 +1665,9 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
-    </row>
-    <row r="13" spans="1:18" ht="136.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S12" s="5"/>
+    </row>
+    <row r="13" spans="1:19" ht="136.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="13"/>
       <c r="C13" s="5"/>
@@ -1670,8 +1688,9 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
-    </row>
-    <row r="14" spans="1:18" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S13" s="5"/>
+    </row>
+    <row r="14" spans="1:19" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="13"/>
       <c r="C14" s="5"/>
@@ -1692,8 +1711,9 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S14" s="5"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="13"/>
       <c r="C15" s="5"/>
@@ -1714,8 +1734,9 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S15" s="5"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="13"/>
       <c r="C16" s="5"/>
@@ -1736,12 +1757,15 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S16" s="5"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" s="13"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -1756,8 +1780,9 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S17" s="5"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="13"/>
       <c r="C18" s="5"/>
@@ -1776,8 +1801,9 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S18" s="5"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="13"/>
       <c r="C19" s="5"/>
@@ -1796,8 +1822,9 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S19" s="5"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="13"/>
       <c r="C20" s="5"/>
@@ -1816,8 +1843,9 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S20" s="5"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="13"/>
       <c r="C21" s="5"/>
@@ -1836,8 +1864,9 @@
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S21" s="5"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="13"/>
       <c r="C22" s="5"/>
@@ -1856,40 +1885,41 @@
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S22" s="5"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B23" s="14"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B24" s="14"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B25" s="14"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B26" s="14"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B27" s="14"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B28" s="14"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B29" s="14"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B30" s="14"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B31" s="14"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B32" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A5:R5"/>
+    <mergeCell ref="A5:S5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Prueba_de_escritorio_Conversor.xlsx
+++ b/Prueba_de_escritorio_Conversor.xlsx
@@ -467,7 +467,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>numero</t>
   </si>
@@ -591,6 +591,15 @@
   </si>
   <si>
     <t>i&lt;5</t>
+  </si>
+  <si>
+    <t>!b[i].toString().equals("000")</t>
+  </si>
+  <si>
+    <t>!b[i].toString().equals("100")</t>
+  </si>
+  <si>
+    <t>b[i].charAt(0) != '0'</t>
   </si>
 </sst>
 </file>
@@ -1336,11 +1345,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:V32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S11" sqref="S11"/>
+      <selection pane="bottomLeft" activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1353,9 +1362,10 @@
     <col min="14" max="14" width="16.54296875" customWidth="1"/>
     <col min="17" max="17" width="43.08984375" customWidth="1"/>
     <col min="18" max="18" width="11.90625" customWidth="1"/>
+    <col min="19" max="21" width="26.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -1410,11 +1420,20 @@
       <c r="R1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1234</v>
       </c>
@@ -1436,8 +1455,11 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
         <v>13</v>
@@ -1459,8 +1481,11 @@
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1479,11 +1504,14 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
-      <c r="S4" s="5" t="s">
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>32</v>
       </c>
@@ -1505,8 +1533,11 @@
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
       <c r="S5" s="11"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>1234</v>
       </c>
@@ -1528,8 +1559,11 @@
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
       <c r="S6" s="10"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
       <c r="B7" s="13"/>
       <c r="C7" s="5" t="s">
@@ -1551,8 +1585,11 @@
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="13"/>
       <c r="C8" s="5"/>
@@ -1574,8 +1611,11 @@
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="13"/>
       <c r="C9" s="5"/>
@@ -1597,8 +1637,11 @@
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="13"/>
       <c r="C10" s="5"/>
@@ -1620,8 +1663,11 @@
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
-    </row>
-    <row r="11" spans="1:19" ht="194" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+    </row>
+    <row r="11" spans="1:22" ht="194" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="13"/>
       <c r="C11" s="5"/>
@@ -1643,8 +1689,11 @@
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
-    </row>
-    <row r="12" spans="1:19" ht="82" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+    </row>
+    <row r="12" spans="1:22" ht="82" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="13"/>
       <c r="C12" s="5"/>
@@ -1666,8 +1715,11 @@
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
-    </row>
-    <row r="13" spans="1:19" ht="136.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+    </row>
+    <row r="13" spans="1:22" ht="136.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="13"/>
       <c r="C13" s="5"/>
@@ -1689,8 +1741,11 @@
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
-    </row>
-    <row r="14" spans="1:19" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+    </row>
+    <row r="14" spans="1:22" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="13"/>
       <c r="C14" s="5"/>
@@ -1712,8 +1767,11 @@
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="13"/>
       <c r="C15" s="5"/>
@@ -1735,8 +1793,11 @@
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="13"/>
       <c r="C16" s="5"/>
@@ -1758,8 +1819,11 @@
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" s="13"/>
       <c r="C17" s="5"/>
@@ -1781,8 +1845,11 @@
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="13"/>
       <c r="C18" s="5"/>
@@ -1800,10 +1867,15 @@
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
+      <c r="R18" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="S18" s="5"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="13"/>
       <c r="C19" s="5"/>
@@ -1823,8 +1895,11 @@
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="13"/>
       <c r="C20" s="5"/>
@@ -1844,8 +1919,11 @@
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="13"/>
       <c r="C21" s="5"/>
@@ -1865,8 +1943,11 @@
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="13"/>
       <c r="C22" s="5"/>
@@ -1886,40 +1967,43 @@
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B23" s="14"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B24" s="14"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B25" s="14"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B26" s="14"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B27" s="14"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B28" s="14"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B29" s="14"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B30" s="14"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B31" s="14"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B32" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A5:S5"/>
+    <mergeCell ref="A5:V5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Prueba_de_escritorio_Conversor.xlsx
+++ b/Prueba_de_escritorio_Conversor.xlsx
@@ -467,7 +467,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>numero</t>
   </si>
@@ -601,12 +601,18 @@
   <si>
     <t>b[i].charAt(0) != '0'</t>
   </si>
+  <si>
+    <t>Unhandled exception: IndexOutOfBoundsException</t>
+  </si>
+  <si>
+    <t>Errores</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -631,6 +637,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -695,7 +716,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -740,6 +761,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1345,11 +1368,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V32"/>
+  <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U8" sqref="U8"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1365,7 +1388,7 @@
     <col min="19" max="21" width="26.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -1432,8 +1455,11 @@
       <c r="V1" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W1" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1234</v>
       </c>
@@ -1458,8 +1484,9 @@
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W2" s="17"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
         <v>13</v>
@@ -1485,7 +1512,7 @@
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1511,7 +1538,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>32</v>
       </c>
@@ -1537,7 +1564,7 @@
       <c r="U5" s="11"/>
       <c r="V5" s="11"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>1234</v>
       </c>
@@ -1563,7 +1590,7 @@
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
       <c r="B7" s="13"/>
       <c r="C7" s="5" t="s">
@@ -1589,7 +1616,7 @@
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="13"/>
       <c r="C8" s="5"/>
@@ -1615,7 +1642,7 @@
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="13"/>
       <c r="C9" s="5"/>
@@ -1641,7 +1668,7 @@
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="13"/>
       <c r="C10" s="5"/>
@@ -1667,7 +1694,7 @@
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
     </row>
-    <row r="11" spans="1:22" ht="194" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" ht="194" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="13"/>
       <c r="C11" s="5"/>
@@ -1693,7 +1720,7 @@
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
     </row>
-    <row r="12" spans="1:22" ht="82" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" ht="82" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="13"/>
       <c r="C12" s="5"/>
@@ -1719,7 +1746,7 @@
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
     </row>
-    <row r="13" spans="1:22" ht="136.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" ht="136.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="13"/>
       <c r="C13" s="5"/>
@@ -1745,7 +1772,7 @@
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
     </row>
-    <row r="14" spans="1:22" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="13"/>
       <c r="C14" s="5"/>
@@ -1771,7 +1798,7 @@
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="13"/>
       <c r="C15" s="5"/>
@@ -1797,7 +1824,7 @@
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="13"/>
       <c r="C16" s="5"/>
@@ -1823,7 +1850,7 @@
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" s="13"/>
       <c r="C17" s="5"/>
@@ -1849,7 +1876,7 @@
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="13"/>
       <c r="C18" s="5"/>
@@ -1875,7 +1902,7 @@
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="13"/>
       <c r="C19" s="5"/>
@@ -1894,12 +1921,14 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
+      <c r="S19" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="13"/>
       <c r="C20" s="5"/>
@@ -1919,11 +1948,13 @@
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
+      <c r="T20" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="U20" s="5"/>
       <c r="V20" s="5"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="13"/>
       <c r="C21" s="5"/>
@@ -1946,8 +1977,11 @@
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
       <c r="V21" s="5"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W21" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="13"/>
       <c r="C22" s="5"/>
@@ -1971,34 +2005,34 @@
       <c r="U22" s="5"/>
       <c r="V22" s="5"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B23" s="14"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B24" s="14"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B25" s="14"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B26" s="14"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B27" s="14"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B28" s="14"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B29" s="14"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B30" s="14"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B31" s="14"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B32" s="14"/>
     </row>
   </sheetData>

--- a/Prueba_de_escritorio_Conversor.xlsx
+++ b/Prueba_de_escritorio_Conversor.xlsx
@@ -467,7 +467,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>numero</t>
   </si>
@@ -600,9 +600,6 @@
   </si>
   <si>
     <t>b[i].charAt(0) != '0'</t>
-  </si>
-  <si>
-    <t>Unhandled exception: IndexOutOfBoundsException</t>
   </si>
   <si>
     <t>Errores</t>
@@ -1370,9 +1367,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V27" sqref="V27"/>
+      <selection pane="bottomLeft" activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1456,7 +1453,7 @@
         <v>9</v>
       </c>
       <c r="W1" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
@@ -1977,9 +1974,7 @@
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
       <c r="V21" s="5"/>
-      <c r="W21" s="16" t="s">
-        <v>42</v>
-      </c>
+      <c r="W21" s="16"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>

--- a/Prueba_de_escritorio_Conversor.xlsx
+++ b/Prueba_de_escritorio_Conversor.xlsx
@@ -467,7 +467,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>numero</t>
   </si>
@@ -603,6 +603,9 @@
   </si>
   <si>
     <t>Errores</t>
+  </si>
+  <si>
+    <t>i&lt;4</t>
   </si>
 </sst>
 </file>
@@ -1365,11 +1368,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W32"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U24" sqref="U24"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1381,11 +1384,11 @@
     <col min="12" max="12" width="19" customWidth="1"/>
     <col min="14" max="14" width="16.54296875" customWidth="1"/>
     <col min="17" max="17" width="43.08984375" customWidth="1"/>
-    <col min="18" max="18" width="11.90625" customWidth="1"/>
-    <col min="19" max="21" width="26.453125" customWidth="1"/>
+    <col min="18" max="19" width="11.90625" customWidth="1"/>
+    <col min="20" max="22" width="26.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -1438,25 +1441,28 @@
         <v>30</v>
       </c>
       <c r="R1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="X1" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1234</v>
       </c>
@@ -1481,9 +1487,10 @@
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
-      <c r="W2" s="17"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="W2" s="5"/>
+      <c r="X2" s="17"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
         <v>13</v>
@@ -1508,8 +1515,9 @@
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="W3" s="5"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1531,11 +1539,12 @@
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
-      <c r="V4" s="5" t="s">
+      <c r="V4" s="5"/>
+      <c r="W4" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>32</v>
       </c>
@@ -1560,8 +1569,9 @@
       <c r="T5" s="11"/>
       <c r="U5" s="11"/>
       <c r="V5" s="11"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="W5" s="11"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>1234</v>
       </c>
@@ -1586,8 +1596,9 @@
       <c r="T6" s="10"/>
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="W6" s="10"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
       <c r="B7" s="13"/>
       <c r="C7" s="5" t="s">
@@ -1612,8 +1623,9 @@
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="W7" s="5"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="13"/>
       <c r="C8" s="5"/>
@@ -1638,8 +1650,9 @@
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="W8" s="5"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="13"/>
       <c r="C9" s="5"/>
@@ -1664,8 +1677,9 @@
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="W9" s="5"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="13"/>
       <c r="C10" s="5"/>
@@ -1690,8 +1704,9 @@
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
-    </row>
-    <row r="11" spans="1:23" ht="194" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W10" s="5"/>
+    </row>
+    <row r="11" spans="1:24" ht="194" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="13"/>
       <c r="C11" s="5"/>
@@ -1716,8 +1731,9 @@
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
-    </row>
-    <row r="12" spans="1:23" ht="82" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W11" s="5"/>
+    </row>
+    <row r="12" spans="1:24" ht="82" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="13"/>
       <c r="C12" s="5"/>
@@ -1742,8 +1758,9 @@
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
-    </row>
-    <row r="13" spans="1:23" ht="136.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W12" s="5"/>
+    </row>
+    <row r="13" spans="1:24" ht="136.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="13"/>
       <c r="C13" s="5"/>
@@ -1768,8 +1785,9 @@
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
-    </row>
-    <row r="14" spans="1:23" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W13" s="5"/>
+    </row>
+    <row r="14" spans="1:24" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="13"/>
       <c r="C14" s="5"/>
@@ -1794,8 +1812,9 @@
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="W14" s="5"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="13"/>
       <c r="C15" s="5"/>
@@ -1820,8 +1839,9 @@
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="W15" s="5"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="13"/>
       <c r="C16" s="5"/>
@@ -1846,8 +1866,9 @@
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="W16" s="5"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" s="13"/>
       <c r="C17" s="5"/>
@@ -1872,8 +1893,9 @@
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="W17" s="5"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="13"/>
       <c r="C18" s="5"/>
@@ -1891,15 +1913,16 @@
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
-      <c r="R18" s="5" t="s">
+      <c r="R18" s="5"/>
+      <c r="S18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="S18" s="5"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="W18" s="5"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="13"/>
       <c r="C19" s="5"/>
@@ -1918,14 +1941,15 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
-      <c r="S19" s="5" t="s">
+      <c r="S19" s="5"/>
+      <c r="T19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="T19" s="5"/>
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="W19" s="5"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="13"/>
       <c r="C20" s="5"/>
@@ -1945,13 +1969,14 @@
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
-      <c r="T20" s="5" t="s">
+      <c r="T20" s="5"/>
+      <c r="U20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="U20" s="5"/>
       <c r="V20" s="5"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="W20" s="5"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="13"/>
       <c r="C21" s="5"/>
@@ -1974,9 +1999,10 @@
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
       <c r="V21" s="5"/>
-      <c r="W21" s="16"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="W21" s="5"/>
+      <c r="X21" s="16"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="13"/>
       <c r="C22" s="5"/>
@@ -1999,40 +2025,41 @@
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
       <c r="V22" s="5"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="W22" s="5"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B23" s="14"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B24" s="14"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B25" s="14"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B26" s="14"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B27" s="14"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B28" s="14"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B29" s="14"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B30" s="14"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B31" s="14"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B32" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A5:V5"/>
+    <mergeCell ref="A5:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Prueba_de_escritorio_Conversor.xlsx
+++ b/Prueba_de_escritorio_Conversor.xlsx
@@ -467,7 +467,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>numero</t>
   </si>
@@ -606,6 +606,9 @@
   </si>
   <si>
     <t>i&lt;4</t>
+  </si>
+  <si>
+    <t>{"12","","","",""}</t>
   </si>
 </sst>
 </file>
@@ -1370,9 +1373,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1913,10 +1916,10 @@
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5" t="s">
+      <c r="R18" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="S18" s="5"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
@@ -1933,7 +1936,9 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
+      <c r="K19" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
@@ -1942,9 +1947,7 @@
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
-      <c r="T19" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="T19" s="5"/>
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
@@ -1970,9 +1973,7 @@
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
-      <c r="U20" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="U20" s="5"/>
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
     </row>

--- a/Prueba_de_escritorio_Conversor.xlsx
+++ b/Prueba_de_escritorio_Conversor.xlsx
@@ -467,7 +467,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>numero</t>
   </si>
@@ -608,7 +608,10 @@
     <t>i&lt;4</t>
   </si>
   <si>
-    <t>{"12","","","",""}</t>
+    <t xml:space="preserve">Unhandled exception: </t>
+  </si>
+  <si>
+    <t>{"123","","","",""}</t>
   </si>
 </sst>
 </file>
@@ -1373,9 +1376,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
+      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1937,7 +1940,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
@@ -1956,7 +1959,9 @@
       <c r="A20" s="5"/>
       <c r="B20" s="13"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
@@ -1995,7 +2000,9 @@
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
+      <c r="R21" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
@@ -2027,6 +2034,9 @@
       <c r="U22" s="5"/>
       <c r="V22" s="5"/>
       <c r="W22" s="5"/>
+      <c r="X22" s="16" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B23" s="14"/>
